--- a/assets/fleet/9245263_sofia/datasets/Stability/SSS_Sofia_Compartments.xlsx
+++ b/assets/fleet/9245263_sofia/datasets/Stability/SSS_Sofia_Compartments.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Documents\Проекты\СУХОГРУЗЫ\София\SSS\Stability\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\datasets\Stability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB717785-4994-49E1-97E5-3AEC07F27C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44D3F42-580E-4C76-B456-D24D94EC029A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="53" r:id="rId1"/>
@@ -703,12 +703,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -727,7 +733,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
@@ -752,6 +758,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1074,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H20" sqref="A20:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,11 +1621,11 @@
       <c r="F20" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="G20" s="3">
-        <v>66</v>
-      </c>
-      <c r="H20" s="3">
-        <v>89</v>
+      <c r="G20" s="10">
+        <v>68</v>
+      </c>
+      <c r="H20" s="10">
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1664,8 +1673,8 @@
       <c r="F22" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="G22" s="3">
-        <v>26</v>
+      <c r="G22" s="10">
+        <v>28</v>
       </c>
       <c r="H22" s="3">
         <v>68</v>
@@ -1690,8 +1699,8 @@
       <c r="F23" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="G23" s="3">
-        <v>26</v>
+      <c r="G23" s="10">
+        <v>28</v>
       </c>
       <c r="H23" s="3">
         <v>68</v>

--- a/assets/fleet/9245263_sofia/datasets/Stability/SSS_Sofia_Compartments.xlsx
+++ b/assets/fleet/9245263_sofia/datasets/Stability/SSS_Sofia_Compartments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\datasets\Stability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44D3F42-580E-4C76-B456-D24D94EC029A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474C55BD-B482-4B53-A39A-5DABAB5D5DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="53" r:id="rId1"/>
@@ -703,18 +703,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -733,7 +727,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
@@ -758,9 +752,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1084,7 +1075,7 @@
   <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H20" sqref="A20:H23"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1621,10 +1612,10 @@
       <c r="F20" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
         <v>68</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="9">
         <v>99</v>
       </c>
     </row>
@@ -1647,10 +1638,10 @@
       <c r="F21" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="9">
         <v>68</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="9">
         <v>99</v>
       </c>
     </row>
@@ -1673,10 +1664,10 @@
       <c r="F22" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <v>28</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="9">
         <v>68</v>
       </c>
     </row>
@@ -1699,10 +1690,10 @@
       <c r="F23" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="9">
         <v>28</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="9">
         <v>68</v>
       </c>
     </row>

--- a/assets/fleet/9245263_sofia/datasets/Stability/SSS_Sofia_Compartments.xlsx
+++ b/assets/fleet/9245263_sofia/datasets/Stability/SSS_Sofia_Compartments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\datasets\Stability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474C55BD-B482-4B53-A39A-5DABAB5D5DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275EAAA3-7BBB-4E2B-85A9-F8908992E8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -297,15 +297,9 @@
     <t>Цистерна гидравлического масла 1</t>
   </si>
   <si>
-    <t>Hydrolic Oil Tank 1</t>
-  </si>
-  <si>
     <t>Цистерна гидравлического масла 2</t>
   </si>
   <si>
-    <t>Hydrolic Oil Tank 2</t>
-  </si>
-  <si>
     <t>Цистерна котельного масла</t>
   </si>
   <si>
@@ -649,6 +643,12 @@
   </si>
   <si>
     <t>DW</t>
+  </si>
+  <si>
+    <t>Hydraulic Oil Tank 1</t>
+  </si>
+  <si>
+    <t>Hydraulic Oil Tank 2</t>
   </si>
 </sst>
 </file>
@@ -1074,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G2" s="3">
         <v>163</v>
@@ -1162,13 +1162,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G3" s="3">
         <v>156</v>
@@ -1188,13 +1188,13 @@
         <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G4" s="3">
         <v>110</v>
@@ -1214,13 +1214,13 @@
         <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G5" s="3">
         <v>99</v>
@@ -1240,13 +1240,13 @@
         <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G6" s="3">
         <v>62</v>
@@ -1266,13 +1266,13 @@
         <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G7" s="3">
         <v>42</v>
@@ -1292,13 +1292,13 @@
         <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G8" s="3">
         <v>132</v>
@@ -1318,13 +1318,13 @@
         <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G9" s="3">
         <v>132</v>
@@ -1344,13 +1344,13 @@
         <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G10" s="3">
         <v>99</v>
@@ -1370,13 +1370,13 @@
         <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G11" s="3">
         <v>99</v>
@@ -1396,13 +1396,13 @@
         <v>34</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G12" s="3">
         <v>64</v>
@@ -1422,13 +1422,13 @@
         <v>35</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G13" s="3">
         <v>64</v>
@@ -1448,13 +1448,13 @@
         <v>36</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G14" s="3">
         <v>28</v>
@@ -1474,13 +1474,13 @@
         <v>37</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G15" s="3">
         <v>28</v>
@@ -1500,13 +1500,13 @@
         <v>38</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G16" s="3">
         <v>136</v>
@@ -1526,13 +1526,13 @@
         <v>39</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G17" s="3">
         <v>136</v>
@@ -1552,13 +1552,13 @@
         <v>40</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G18" s="3">
         <v>99</v>
@@ -1578,13 +1578,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G19" s="3">
         <v>99</v>
@@ -1604,13 +1604,13 @@
         <v>44</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G20" s="9">
         <v>68</v>
@@ -1630,13 +1630,13 @@
         <v>46</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>47</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G21" s="9">
         <v>68</v>
@@ -1656,13 +1656,13 @@
         <v>48</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>49</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G22" s="9">
         <v>28</v>
@@ -1682,13 +1682,13 @@
         <v>50</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G23" s="9">
         <v>28</v>
@@ -1708,13 +1708,13 @@
         <v>63</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>64</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G24" s="3">
         <v>28</v>
@@ -1734,13 +1734,13 @@
         <v>65</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>66</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G25" s="3">
         <v>28</v>
@@ -1760,13 +1760,13 @@
         <v>67</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G26" s="3">
         <v>17</v>
@@ -1786,13 +1786,13 @@
         <v>69</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>70</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G27" s="3">
         <v>17</v>
@@ -1812,13 +1812,13 @@
         <v>52</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G28" s="3">
         <v>10</v>
@@ -1838,13 +1838,13 @@
         <v>54</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>55</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G29" s="3">
         <v>10</v>
@@ -1864,13 +1864,13 @@
         <v>56</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G30" s="3">
         <v>-6</v>
@@ -1890,13 +1890,13 @@
         <v>58</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G31" s="3">
         <v>-6</v>
@@ -1913,16 +1913,16 @@
         <v>301</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G32" s="3">
         <v>25</v>
@@ -1942,13 +1942,13 @@
         <v>61</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G33" s="3">
         <v>25</v>
@@ -1968,13 +1968,13 @@
         <v>71</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G34" s="3">
         <v>24</v>
@@ -1994,13 +1994,13 @@
         <v>73</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G35" s="3">
         <v>15</v>
@@ -2020,13 +2020,13 @@
         <v>75</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G36" s="3">
         <v>22</v>
@@ -2046,13 +2046,13 @@
         <v>77</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G37" s="3">
         <v>8</v>
@@ -2072,13 +2072,13 @@
         <v>79</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>80</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G38" s="3">
         <v>13</v>
@@ -2098,13 +2098,13 @@
         <v>81</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>82</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G39" s="3">
         <v>10</v>
@@ -2124,13 +2124,13 @@
         <v>77</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G40" s="3">
         <v>16</v>
@@ -2150,13 +2150,13 @@
         <v>83</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G41" s="3">
         <v>14</v>
@@ -2176,13 +2176,13 @@
         <v>85</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>86</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G42" s="3">
         <v>13</v>
@@ -2202,13 +2202,13 @@
         <v>87</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>88</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G43" s="3">
         <v>17</v>
@@ -2228,13 +2228,13 @@
         <v>89</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>90</v>
+        <v>206</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G44" s="3">
         <v>13</v>
@@ -2251,16 +2251,16 @@
         <v>701</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>92</v>
+        <v>207</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G45" s="3">
         <v>14</v>
@@ -2277,16 +2277,16 @@
         <v>702</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G46" s="3">
         <v>8</v>
@@ -2303,16 +2303,16 @@
         <v>703</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G47" s="3">
         <v>20</v>
@@ -2329,16 +2329,16 @@
         <v>704</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G48" s="3">
         <v>20</v>
@@ -2355,16 +2355,16 @@
         <v>705</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G49" s="3">
         <v>16</v>
@@ -2381,16 +2381,16 @@
         <v>706</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G50" s="3">
         <v>16</v>
@@ -2407,16 +2407,16 @@
         <v>601</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>49</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G51" s="3">
         <v>-5</v>
@@ -2433,16 +2433,16 @@
         <v>602</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G52" s="3">
         <v>-5</v>
@@ -2459,16 +2459,16 @@
         <v>991</v>
       </c>
       <c r="C53" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="E53" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="G53" s="3">
         <v>17</v>
